--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H2">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2365093333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N2">
-        <v>0.7095279999999999</v>
+        <v>1.374487</v>
       </c>
       <c r="O2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q2">
-        <v>0.005985262862222222</v>
+        <v>0.03298784072077778</v>
       </c>
       <c r="R2">
-        <v>0.05386736575999999</v>
+        <v>0.296890566487</v>
       </c>
       <c r="S2">
-        <v>0.002100082535470735</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="T2">
-        <v>0.002100082535470734</v>
+        <v>0.1060599910922654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H3">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07510100000000001</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
         <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q3">
-        <v>0.001900555973333334</v>
+        <v>0.005407297033666667</v>
       </c>
       <c r="R3">
-        <v>0.01710500376</v>
+        <v>0.048665673303</v>
       </c>
       <c r="S3">
-        <v>0.0006668586658865656</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="T3">
-        <v>0.0006668586658865654</v>
+        <v>0.01738512926863672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,495 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H4">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006358</v>
+        <v>3.786578</v>
       </c>
       <c r="N4">
-        <v>0.019074</v>
+        <v>11.359734</v>
       </c>
       <c r="O4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q4">
-        <v>0.0001608997866666667</v>
+        <v>0.2726348781926667</v>
       </c>
       <c r="R4">
-        <v>0.00144809808</v>
+        <v>2.453713903734</v>
       </c>
       <c r="S4">
-        <v>5.645580481893427E-05</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="T4">
-        <v>5.645580481893427E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.02530666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.07592</v>
-      </c>
-      <c r="I5">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="J5">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N5">
-        <v>116.732443</v>
-      </c>
-      <c r="O5">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P5">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q5">
-        <v>0.9847030080622221</v>
-      </c>
-      <c r="R5">
-        <v>8.862327072559999</v>
-      </c>
-      <c r="S5">
-        <v>0.3455082320459982</v>
-      </c>
-      <c r="T5">
-        <v>0.3455082320459982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.02530666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.07592</v>
-      </c>
-      <c r="I6">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="J6">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.302191</v>
-      </c>
-      <c r="O6">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P6">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q6">
-        <v>0.002549148968888889</v>
-      </c>
-      <c r="R6">
-        <v>0.02294234072</v>
-      </c>
-      <c r="S6">
-        <v>0.0008944341047519432</v>
-      </c>
-      <c r="T6">
-        <v>0.0008944341047519432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.141475</v>
-      </c>
-      <c r="I7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.2365093333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.7095279999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.006013533229697845</v>
-      </c>
-      <c r="P7">
-        <v>0.006013533229697844</v>
-      </c>
-      <c r="Q7">
-        <v>0.01115338597777778</v>
-      </c>
-      <c r="R7">
-        <v>0.1003804738</v>
-      </c>
-      <c r="S7">
-        <v>0.00391345069422711</v>
-      </c>
-      <c r="T7">
-        <v>0.003913450694227109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.141475</v>
-      </c>
-      <c r="I8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.07510100000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.225303</v>
-      </c>
-      <c r="O8">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="P8">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="Q8">
-        <v>0.003541637991666667</v>
-      </c>
-      <c r="R8">
-        <v>0.03187474192500001</v>
-      </c>
-      <c r="S8">
-        <v>0.001242674259171521</v>
-      </c>
-      <c r="T8">
-        <v>0.00124267425917152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.141475</v>
-      </c>
-      <c r="I9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.006358</v>
-      </c>
-      <c r="N9">
-        <v>0.019074</v>
-      </c>
-      <c r="O9">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="P9">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="Q9">
-        <v>0.0002998326833333333</v>
-      </c>
-      <c r="R9">
-        <v>0.00269849415</v>
-      </c>
-      <c r="S9">
-        <v>0.000105203964525273</v>
-      </c>
-      <c r="T9">
-        <v>0.000105203964525273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.141475</v>
-      </c>
-      <c r="I10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N10">
-        <v>116.732443</v>
-      </c>
-      <c r="O10">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P10">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q10">
-        <v>1.834969152602777</v>
-      </c>
-      <c r="R10">
-        <v>16.514722373425</v>
-      </c>
-      <c r="S10">
-        <v>0.643845852590985</v>
-      </c>
-      <c r="T10">
-        <v>0.643845852590985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.141475</v>
-      </c>
-      <c r="I11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.302191</v>
-      </c>
-      <c r="O11">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P11">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q11">
-        <v>0.00475027463611111</v>
-      </c>
-      <c r="R11">
-        <v>0.042752471725</v>
-      </c>
-      <c r="S11">
-        <v>0.001666755334164662</v>
-      </c>
-      <c r="T11">
-        <v>0.001666755334164662</v>
+        <v>0.8765548796390978</v>
       </c>
     </row>
   </sheetData>
